--- a/cevap_anahtarlari/Deneme_1.xlsx
+++ b/cevap_anahtarlari/Deneme_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmet\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SinavSistemi\cevap_anahtarlari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C37A9-C6B7-46CF-862E-DA9675FE08AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7626117E-ABCC-4661-8D6F-43EA4DFC7CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>Cevap</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
 </sst>
 </file>
@@ -360,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,12 +377,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -395,57 +392,57 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -455,12 +452,22 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
